--- a/5-FuncoesMercadoTrabalho/72. Exercícios - DESLOC e CORRESP - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/72. Exercícios - DESLOC e CORRESP - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hashtagtreinamentos-my.sharepoint.com/personal/alfredo_araujo_hashtagtreinamentos_com/Documents/Fred/5 - EAD/Aulas de exercícios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="613" documentId="13_ncr:1_{0CFE1AA1-0545-4648-BF82-625216BF6D75}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{299A2A71-6389-4C0C-889E-0B8C60375794}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B4747-17D8-4BE4-A1BF-1C5CFCA81A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="862" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -949,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1584,21 +1587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1647,7 +1635,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1883,12 +1871,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,14 +1888,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cancel 2" xfId="2" xr:uid="{150ABA6D-DB56-4220-9119-B3C43C3A92C3}"/>
@@ -3699,13 +3684,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>379770</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>154610</xdr:rowOff>
+      <xdr:rowOff>154609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618435</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3720,8 +3705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="468118" y="154610"/>
-          <a:ext cx="5749360" cy="474868"/>
+          <a:off x="465495" y="154609"/>
+          <a:ext cx="5640030" cy="674065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4496,87 +4481,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="0.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:8" ht="4.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="5:8" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="5:8" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="5:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="118" t="s">
+    <row r="7" spans="5:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="s">
+      <c r="F8" s="115"/>
+      <c r="G8" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="H8" s="118"/>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E9" s="118" t="s">
+      <c r="H8" s="115"/>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118" t="s">
+      <c r="F9" s="115"/>
+      <c r="G9" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="118"/>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E10" s="118" t="s">
+      <c r="H9" s="115"/>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118" t="s">
+      <c r="F10" s="115"/>
+      <c r="G10" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="H10" s="118"/>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="118" t="s">
+      <c r="H10" s="115"/>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118" t="s">
+      <c r="F11" s="115"/>
+      <c r="G11" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="118"/>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="118" t="s">
+      <c r="H11" s="115"/>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118" t="s">
+      <c r="F12" s="115"/>
+      <c r="G12" s="115" t="s">
         <v>241</v>
       </c>
-      <c r="H12" s="118"/>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
+      <c r="H12" s="115"/>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4592,17 +4577,19 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>225</v>
       </c>
@@ -4616,7 +4603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>210</v>
       </c>
@@ -4630,7 +4617,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>211</v>
       </c>
@@ -4644,7 +4631,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>213</v>
       </c>
@@ -4658,7 +4645,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>215</v>
       </c>
@@ -4672,7 +4659,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>217</v>
       </c>
@@ -4686,7 +4673,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>218</v>
       </c>
@@ -4700,7 +4687,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>220</v>
       </c>
@@ -4714,7 +4701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>221</v>
       </c>
@@ -4728,7 +4715,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>222</v>
       </c>
@@ -4742,7 +4729,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>223</v>
       </c>
@@ -4756,7 +4743,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>224</v>
       </c>
@@ -4782,16 +4769,18 @@
   </sheetPr>
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="110" t="s">
         <v>202</v>
       </c>
@@ -4799,19 +4788,31 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="112">
+        <f ca="1">COUNTIFS(INDIRECT("'"&amp;$B3&amp;"'!B:B"), 'Relatório Matrículas'!C$2)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="112">
+        <f ca="1">COUNTIFS(INDIRECT("'"&amp;$B3&amp;"'!B:B"), 'Relatório Matrículas'!D$2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="109" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
+      <c r="C4" s="112">
+        <f ca="1">COUNTIFS(INDIRECT("'"&amp;$B4&amp;"'!B:B"), 'Relatório Matrículas'!C$2)</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="112">
+        <f ca="1">COUNTIFS(INDIRECT("'"&amp;$B4&amp;"'!B:B"), 'Relatório Matrículas'!D$2)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4828,18 +4829,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="9.21875" style="6"/>
-    <col min="7" max="7" width="13.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="1" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="6"/>
+    <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -4895,7 +4896,7 @@
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
@@ -4914,7 +4915,7 @@
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -4933,7 +4934,7 @@
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -4952,7 +4953,7 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
@@ -4971,7 +4972,7 @@
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>60</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>65</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>70</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>72</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>74</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>75</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>76</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>77</v>
       </c>
@@ -5321,821 +5322,821 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -6154,26 +6155,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.109375" customWidth="1"/>
-    <col min="2" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="12.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="122" t="s">
+    <row r="1" spans="2:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="12.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="123"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="122"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>86</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>87</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>88</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>89</v>
       </c>
@@ -6205,8 +6206,8 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="101" t="s">
         <v>91</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="97" t="s">
         <v>92</v>
       </c>
@@ -6288,8 +6289,8 @@
         <v>15992.64</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="101" t="s">
         <v>85</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
         <v>86</v>
       </c>
@@ -6347,7 +6348,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="98" t="s">
         <v>87</v>
       </c>
@@ -6364,7 +6365,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="98" t="s">
         <v>88</v>
       </c>
@@ -6381,7 +6382,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="97" t="s">
         <v>89</v>
       </c>
@@ -6417,12 +6418,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>91</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
         <v>43101</v>
       </c>
@@ -6439,7 +6440,7 @@
       </c>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>43132</v>
       </c>
@@ -6448,7 +6449,7 @@
       </c>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="60">
         <v>43160</v>
       </c>
@@ -6457,7 +6458,7 @@
       </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>43191</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="60">
         <v>43221</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>43252</v>
       </c>
@@ -6490,7 +6491,7 @@
       </c>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>43282</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>5.1882999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>43313</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>5.3491</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>43344</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>5.3852000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>43374</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>5.2728000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
         <v>43405</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>5.6172000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
         <v>43435</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>5.4854000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="60">
         <v>43466</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>5.0968</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>43497</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>5.2713999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="60">
         <v>43525</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>5.3815</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>43556</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>5.6295999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="60">
         <v>43586</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>5.6234000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
         <v>43617</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>5.2701000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="60">
         <v>43647</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>5.0873999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>43678</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>43709</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>5.2473999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="60">
         <v>43739</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>5.2576000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="60">
         <v>43770</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>5.4509999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="62">
         <v>43800</v>
       </c>
@@ -6651,19 +6652,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="1" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>94</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="85">
         <v>43116</v>
       </c>
@@ -6711,9 +6712,9 @@
         <v>152</v>
       </c>
       <c r="H2" s="88"/>
-      <c r="I2" s="119"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="116"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="89">
         <v>43139</v>
       </c>
@@ -6737,9 +6738,9 @@
         <v>152</v>
       </c>
       <c r="H3" s="92"/>
-      <c r="I3" s="119"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="116"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="85">
         <v>43166</v>
       </c>
@@ -6763,9 +6764,9 @@
         <v>152</v>
       </c>
       <c r="H4" s="88"/>
-      <c r="I4" s="119"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="116"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="89">
         <v>43173</v>
       </c>
@@ -6789,9 +6790,9 @@
         <v>152</v>
       </c>
       <c r="H5" s="92"/>
-      <c r="I5" s="119"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="116"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="85">
         <v>43186</v>
       </c>
@@ -6815,9 +6816,9 @@
         <v>152</v>
       </c>
       <c r="H6" s="88"/>
-      <c r="I6" s="119"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="116"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="89">
         <v>43205</v>
       </c>
@@ -6841,9 +6842,9 @@
         <v>152</v>
       </c>
       <c r="H7" s="92"/>
-      <c r="I7" s="119"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="116"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="85">
         <v>43207</v>
       </c>
@@ -6867,9 +6868,9 @@
         <v>152</v>
       </c>
       <c r="H8" s="88"/>
-      <c r="I8" s="119"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="116"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="89">
         <v>43229</v>
       </c>
@@ -6893,9 +6894,9 @@
         <v>152</v>
       </c>
       <c r="H9" s="92"/>
-      <c r="I9" s="119"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="116"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="85">
         <v>43259</v>
       </c>
@@ -6919,9 +6920,9 @@
         <v>152</v>
       </c>
       <c r="H10" s="88"/>
-      <c r="I10" s="119"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="116"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="89">
         <v>43297</v>
       </c>
@@ -6945,9 +6946,9 @@
         <v>152</v>
       </c>
       <c r="H11" s="92"/>
-      <c r="I11" s="119"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="116"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="85">
         <v>43313</v>
       </c>
@@ -6971,9 +6972,9 @@
         <v>152</v>
       </c>
       <c r="H12" s="88"/>
-      <c r="I12" s="119"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="116"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="89">
         <v>43314</v>
       </c>
@@ -6997,9 +6998,9 @@
         <v>152</v>
       </c>
       <c r="H13" s="92"/>
-      <c r="I13" s="119"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="116"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="85">
         <v>43314</v>
       </c>
@@ -7023,9 +7024,9 @@
         <v>152</v>
       </c>
       <c r="H14" s="88"/>
-      <c r="I14" s="119"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="116"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>43323</v>
       </c>
@@ -7049,9 +7050,9 @@
         <v>152</v>
       </c>
       <c r="H15" s="92"/>
-      <c r="I15" s="119"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="116"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="85">
         <v>43342</v>
       </c>
@@ -7075,9 +7076,9 @@
         <v>152</v>
       </c>
       <c r="H16" s="88"/>
-      <c r="I16" s="119"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="116"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
         <v>43342</v>
       </c>
@@ -7101,9 +7102,9 @@
         <v>152</v>
       </c>
       <c r="H17" s="92"/>
-      <c r="I17" s="119"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="116"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="85">
         <v>43348</v>
       </c>
@@ -7127,9 +7128,9 @@
         <v>152</v>
       </c>
       <c r="H18" s="88"/>
-      <c r="I18" s="119"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="116"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
         <v>43354</v>
       </c>
@@ -7153,9 +7154,9 @@
         <v>152</v>
       </c>
       <c r="H19" s="92"/>
-      <c r="I19" s="119"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="116"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="85">
         <v>43364</v>
       </c>
@@ -7179,9 +7180,9 @@
         <v>152</v>
       </c>
       <c r="H20" s="88"/>
-      <c r="I20" s="119"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="116"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
         <v>43367</v>
       </c>
@@ -7205,9 +7206,9 @@
         <v>152</v>
       </c>
       <c r="H21" s="92"/>
-      <c r="I21" s="119"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="116"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="85">
         <v>43374</v>
       </c>
@@ -7231,9 +7232,9 @@
         <v>152</v>
       </c>
       <c r="H22" s="88"/>
-      <c r="I22" s="119"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="116"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
         <v>43381</v>
       </c>
@@ -7257,9 +7258,9 @@
         <v>152</v>
       </c>
       <c r="H23" s="92"/>
-      <c r="I23" s="119"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="116"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="85">
         <v>43433</v>
       </c>
@@ -7283,9 +7284,9 @@
         <v>152</v>
       </c>
       <c r="H24" s="88"/>
-      <c r="I24" s="119"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="116"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
         <v>43441</v>
       </c>
@@ -7309,9 +7310,9 @@
         <v>152</v>
       </c>
       <c r="H25" s="92"/>
-      <c r="I25" s="119"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="116"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="85">
         <v>43443</v>
       </c>
@@ -7335,9 +7336,9 @@
         <v>152</v>
       </c>
       <c r="H26" s="88"/>
-      <c r="I26" s="119"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="116"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
         <v>43445</v>
       </c>
@@ -7361,9 +7362,9 @@
         <v>152</v>
       </c>
       <c r="H27" s="92"/>
-      <c r="I27" s="119"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="116"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="85">
         <v>43451</v>
       </c>
@@ -7387,9 +7388,9 @@
         <v>152</v>
       </c>
       <c r="H28" s="88"/>
-      <c r="I28" s="119"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="116"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="89">
         <v>43471</v>
       </c>
@@ -7413,9 +7414,9 @@
         <v>152</v>
       </c>
       <c r="H29" s="92"/>
-      <c r="I29" s="119"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="116"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="85">
         <v>43484</v>
       </c>
@@ -7439,9 +7440,9 @@
         <v>152</v>
       </c>
       <c r="H30" s="88"/>
-      <c r="I30" s="119"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="116"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
         <v>43488</v>
       </c>
@@ -7465,9 +7466,9 @@
         <v>152</v>
       </c>
       <c r="H31" s="92"/>
-      <c r="I31" s="119"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="116"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="85">
         <v>43509</v>
       </c>
@@ -7491,9 +7492,9 @@
         <v>152</v>
       </c>
       <c r="H32" s="88"/>
-      <c r="I32" s="119"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="116"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
         <v>43510</v>
       </c>
@@ -7517,9 +7518,9 @@
         <v>152</v>
       </c>
       <c r="H33" s="92"/>
-      <c r="I33" s="119"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="116"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="85">
         <v>43542</v>
       </c>
@@ -7543,9 +7544,9 @@
         <v>152</v>
       </c>
       <c r="H34" s="88"/>
-      <c r="I34" s="119"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="116"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
         <v>43553</v>
       </c>
@@ -7569,9 +7570,9 @@
         <v>152</v>
       </c>
       <c r="H35" s="92"/>
-      <c r="I35" s="119"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="116"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="85">
         <v>43562</v>
       </c>
@@ -7595,9 +7596,9 @@
         <v>152</v>
       </c>
       <c r="H36" s="88"/>
-      <c r="I36" s="119"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="116"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
         <v>43589</v>
       </c>
@@ -7621,9 +7622,9 @@
         <v>152</v>
       </c>
       <c r="H37" s="92"/>
-      <c r="I37" s="119"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="116"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="85">
         <v>43594</v>
       </c>
@@ -7647,9 +7648,9 @@
         <v>152</v>
       </c>
       <c r="H38" s="88"/>
-      <c r="I38" s="119"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="116"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="93">
         <v>43630</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>152</v>
       </c>
       <c r="H39" s="96"/>
-      <c r="I39" s="119"/>
+      <c r="I39" s="116"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7695,17 +7696,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.21875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="6"/>
+    <col min="5" max="6" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.28515625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>163</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
         <v>2020</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>7501</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2020</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>12844</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>2020</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>2020</v>
       </c>
@@ -7865,7 +7866,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>2020</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>13680</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>2020</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>7546</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>2020</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>14746</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>2020</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>8837</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>2020</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>14613</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>2020</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>8291</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>2020</v>
       </c>
@@ -8089,7 +8090,7 @@
         <v>8196</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>2020</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>13951</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>2020</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>12568</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>2020</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>8452</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>2020</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>13285</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>2020</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>9185</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>2020</v>
       </c>
@@ -8281,7 +8282,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="25">
         <v>2020</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>2020</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="25">
         <v>2020</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>9405</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>2020</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>2020</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>6010</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>2020</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="25">
         <v>2020</v>
       </c>
@@ -8505,7 +8506,7 @@
         <v>12779</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>2020</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="25">
         <v>2020</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>2020</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>4873</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="25">
         <v>2020</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>2020</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>10355</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="25">
         <v>2020</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>10909</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
         <v>2020</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>6018</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="25">
         <v>2020</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>9128</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="25">
         <v>2020</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>8468</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="25">
         <v>2020</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="25">
         <v>2020</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="25">
         <v>2020</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="25">
         <v>2020</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="25">
         <v>2020</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>6516</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="25">
         <v>2020</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>13029</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="25">
         <v>2020</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>13699</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="25">
         <v>2020</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="25">
         <v>2020</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>6762</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="25">
         <v>2020</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>13321</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="25">
         <v>2020</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="25">
         <v>2020</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>13856</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="25">
         <v>2020</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>14220</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
         <v>2020</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>9777</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="25">
         <v>2020</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>7565</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="25">
         <v>2020</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>11588</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="25">
         <v>2020</v>
       </c>
@@ -9337,7 +9338,7 @@
         <v>12327</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="25">
         <v>2020</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>8316</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="25">
         <v>2020</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="25">
         <v>2020</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="25">
         <v>2020</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>10505</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
         <v>2020</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>6564</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="25">
         <v>2020</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>6512</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="25">
         <v>2020</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>5782</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
         <v>2020</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>10620</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
         <v>2020</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>3556</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="25">
         <v>2020</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>11971</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="25">
         <v>2020</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="25">
         <v>2020</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="25">
         <v>2020</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="25">
         <v>2020</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="25">
         <v>2020</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>12018</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="25">
         <v>2020</v>
       </c>
@@ -9849,7 +9850,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="25">
         <v>2020</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="25">
         <v>2020</v>
       </c>
@@ -9913,7 +9914,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="25">
         <v>2020</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>14687</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="25">
         <v>2020</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="25">
         <v>2020</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="25">
         <v>2020</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="25">
         <v>2020</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="25">
         <v>2020</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>10935</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="25">
         <v>2020</v>
       </c>
@@ -10137,7 +10138,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="25">
         <v>2020</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="25">
         <v>2020</v>
       </c>
@@ -10201,7 +10202,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="25">
         <v>2020</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="25">
         <v>2020</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>7455</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
         <v>2020</v>
       </c>
@@ -10297,7 +10298,7 @@
         <v>9941</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="25">
         <v>2020</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>7049</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="25">
         <v>2020</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="25">
         <v>2020</v>
       </c>
@@ -10393,7 +10394,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="25">
         <v>2020</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>5985</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="25">
         <v>2020</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>13986</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="25">
         <v>2020</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>10951</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="25">
         <v>2020</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>11344</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="25">
         <v>2020</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="25">
         <v>2020</v>
       </c>
@@ -10585,7 +10586,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="25">
         <v>2020</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>8786</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="25">
         <v>2020</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>14368</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="25">
         <v>2020</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>14076</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="25">
         <v>2020</v>
       </c>
@@ -10713,7 +10714,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
         <v>2020</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>13290</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="25">
         <v>2020</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="25">
         <v>2020</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>9122</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="25">
         <v>2021</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>7191</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="25">
         <v>2021</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>9512</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="25">
         <v>2021</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="25">
         <v>2021</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="25">
         <v>2021</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="25">
         <v>2021</v>
       </c>
@@ -11001,7 +11002,7 @@
         <v>6860</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="25">
         <v>2021</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>13611</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="25">
         <v>2021</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="25">
         <v>2021</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="25">
         <v>2021</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>13616</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="25">
         <v>2021</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="25">
         <v>2021</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>11363</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="25">
         <v>2021</v>
       </c>
@@ -11225,7 +11226,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="25">
         <v>2021</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>13690</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="25">
         <v>2021</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="25">
         <v>2021</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="25">
         <v>2021</v>
       </c>
@@ -11353,7 +11354,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="25">
         <v>2021</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>7870</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="25">
         <v>2021</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>7716</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="25">
         <v>2021</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>6143</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="25">
         <v>2021</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
         <v>2021</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="25">
         <v>2021</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>8327</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="25">
         <v>2021</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>13499</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="25">
         <v>2021</v>
       </c>
@@ -11609,7 +11610,7 @@
         <v>10874</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="25">
         <v>2021</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>7031</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="25">
         <v>2021</v>
       </c>
@@ -11673,7 +11674,7 @@
         <v>12824</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="25">
         <v>2021</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="25">
         <v>2021</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="25">
         <v>2021</v>
       </c>
@@ -11769,7 +11770,7 @@
         <v>9652</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="25">
         <v>2021</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>9945</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="25">
         <v>2021</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>13954</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="25">
         <v>2021</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="25">
         <v>2021</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>9270</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="25">
         <v>2021</v>
       </c>
@@ -11929,7 +11930,7 @@
         <v>7343</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="25">
         <v>2021</v>
       </c>
@@ -11961,7 +11962,7 @@
         <v>11705</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="25">
         <v>2021</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="25">
         <v>2021</v>
       </c>
@@ -12025,7 +12026,7 @@
         <v>9503</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="25">
         <v>2021</v>
       </c>
@@ -12057,7 +12058,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="25">
         <v>2021</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>9413</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="25">
         <v>2021</v>
       </c>
@@ -12121,7 +12122,7 @@
         <v>10026</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="25">
         <v>2021</v>
       </c>
@@ -12153,7 +12154,7 @@
         <v>7639</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="25">
         <v>2021</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>10983</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="25">
         <v>2021</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>11373</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="25">
         <v>2021</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="25">
         <v>2021</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="25">
         <v>2021</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="25">
         <v>2021</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>5821</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="25">
         <v>2021</v>
       </c>
@@ -12377,7 +12378,7 @@
         <v>7060</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="25">
         <v>2021</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>9329</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="25">
         <v>2021</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>10011</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="25">
         <v>2021</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>13905</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="25">
         <v>2021</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="25">
         <v>2021</v>
       </c>
@@ -12537,7 +12538,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="25">
         <v>2021</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>7854</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="25">
         <v>2021</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="25">
         <v>2021</v>
       </c>
@@ -12633,7 +12634,7 @@
         <v>8937</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="25">
         <v>2021</v>
       </c>
@@ -12665,7 +12666,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="25">
         <v>2021</v>
       </c>
@@ -12697,7 +12698,7 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="25">
         <v>2021</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>14420</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="25">
         <v>2021</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>12813</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="25">
         <v>2021</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>9069</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="25">
         <v>2021</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="25">
         <v>2021</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>12969</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="25">
         <v>2021</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>14882</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="25">
         <v>2021</v>
       </c>
@@ -12921,7 +12922,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="25">
         <v>2021</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="25">
         <v>2021</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="25">
         <v>2021</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>6007</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="25">
         <v>2021</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="25">
         <v>2021</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>5954</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="25">
         <v>2021</v>
       </c>
@@ -13113,7 +13114,7 @@
         <v>5793</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="25">
         <v>2021</v>
       </c>
@@ -13145,7 +13146,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="25">
         <v>2021</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="25">
         <v>2021</v>
       </c>
@@ -13209,7 +13210,7 @@
         <v>10162</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="25">
         <v>2021</v>
       </c>
@@ -13241,7 +13242,7 @@
         <v>12340</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="25">
         <v>2021</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="25">
         <v>2021</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="25">
         <v>2021</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>11045</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="25">
         <v>2021</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="25">
         <v>2021</v>
       </c>
@@ -13401,7 +13402,7 @@
         <v>5234</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="25">
         <v>2021</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>9368</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="25">
         <v>2021</v>
       </c>
@@ -13465,7 +13466,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="25">
         <v>2021</v>
       </c>
@@ -13497,7 +13498,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="25">
         <v>2021</v>
       </c>
@@ -13529,7 +13530,7 @@
         <v>9043</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="25">
         <v>2021</v>
       </c>
@@ -13561,7 +13562,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="25">
         <v>2021</v>
       </c>
@@ -13593,7 +13594,7 @@
         <v>14948</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="25">
         <v>2021</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>11330</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="25">
         <v>2021</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="25">
         <v>2021</v>
       </c>
@@ -13689,7 +13690,7 @@
         <v>11432</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="25">
         <v>2021</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>13753</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="25">
         <v>2021</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="25">
         <v>2021</v>
       </c>
@@ -13785,7 +13786,7 @@
         <v>13832</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="25">
         <v>2021</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>13930</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="25">
         <v>2021</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>9210</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="25">
         <v>2021</v>
       </c>
@@ -13881,7 +13882,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="25">
         <v>2022</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>5935</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="25">
         <v>2022</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="25">
         <v>2022</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="25">
         <v>2022</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>8571</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="25">
         <v>2022</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>13352</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="25">
         <v>2022</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>13175</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="25">
         <v>2022</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>10939</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="25">
         <v>2022</v>
       </c>
@@ -14137,7 +14138,7 @@
         <v>12845</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="25">
         <v>2022</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="25">
         <v>2022</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>12645</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="25">
         <v>2022</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="25">
         <v>2022</v>
       </c>
@@ -14265,7 +14266,7 @@
         <v>14361</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="25">
         <v>2022</v>
       </c>
@@ -14297,7 +14298,7 @@
         <v>14793</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="25">
         <v>2022</v>
       </c>
@@ -14329,7 +14330,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="25">
         <v>2022</v>
       </c>
@@ -14361,7 +14362,7 @@
         <v>8276</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="25">
         <v>2022</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="25">
         <v>2022</v>
       </c>
@@ -14425,7 +14426,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="25">
         <v>2022</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="25">
         <v>2022</v>
       </c>
@@ -14489,7 +14490,7 @@
         <v>7768</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="25">
         <v>2022</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="25">
         <v>2022</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="25">
         <v>2022</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="25">
         <v>2022</v>
       </c>
@@ -14617,7 +14618,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="25">
         <v>2022</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>8552</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="25">
         <v>2022</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>6797</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="25">
         <v>2022</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="25">
         <v>2022</v>
       </c>
@@ -14745,7 +14746,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="25">
         <v>2022</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="25">
         <v>2022</v>
       </c>
@@ -14809,7 +14810,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="25">
         <v>2022</v>
       </c>
@@ -14841,7 +14842,7 @@
         <v>12642</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="25">
         <v>2022</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>10976</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="25">
         <v>2022</v>
       </c>
@@ -14905,7 +14906,7 @@
         <v>5593</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="25">
         <v>2022</v>
       </c>
@@ -14937,7 +14938,7 @@
         <v>5383</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="25">
         <v>2022</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>12258</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="25">
         <v>2022</v>
       </c>
@@ -15001,7 +15002,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="25">
         <v>2022</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>13887</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="25">
         <v>2022</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="25">
         <v>2022</v>
       </c>
@@ -15097,7 +15098,7 @@
         <v>13375</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="25">
         <v>2022</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>12680</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="25">
         <v>2022</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>7708</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="25">
         <v>2022</v>
       </c>
@@ -15193,7 +15194,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="25">
         <v>2022</v>
       </c>
@@ -15225,7 +15226,7 @@
         <v>9529</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="25">
         <v>2022</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>6791</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="25">
         <v>2022</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="25">
         <v>2022</v>
       </c>
@@ -15321,7 +15322,7 @@
         <v>14909</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="25">
         <v>2022</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="25">
         <v>2022</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>13954</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="25">
         <v>2022</v>
       </c>
@@ -15417,7 +15418,7 @@
         <v>8149</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="25">
         <v>2022</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="25">
         <v>2022</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>9280</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="25">
         <v>2022</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>13066</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="25">
         <v>2022</v>
       </c>
@@ -15545,7 +15546,7 @@
         <v>5242</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="25">
         <v>2022</v>
       </c>
@@ -15577,7 +15578,7 @@
         <v>11986</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="25">
         <v>2022</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>14245</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="25">
         <v>2022</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="25">
         <v>2022</v>
       </c>
@@ -15673,7 +15674,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="25">
         <v>2022</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="25">
         <v>2022</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="25">
         <v>2022</v>
       </c>
@@ -15769,7 +15770,7 @@
         <v>12398</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="25">
         <v>2022</v>
       </c>
@@ -15801,7 +15802,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="25">
         <v>2022</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>11991</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="25">
         <v>2022</v>
       </c>
@@ -15865,7 +15866,7 @@
         <v>7158</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="25">
         <v>2022</v>
       </c>
@@ -15897,7 +15898,7 @@
         <v>12217</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="25">
         <v>2022</v>
       </c>
@@ -15929,7 +15930,7 @@
         <v>10099</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="25">
         <v>2022</v>
       </c>
@@ -15961,7 +15962,7 @@
         <v>12656</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="25">
         <v>2022</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="25">
         <v>2022</v>
       </c>
@@ -16025,7 +16026,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="25">
         <v>2022</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>13547</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="25">
         <v>2022</v>
       </c>
@@ -16089,7 +16090,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="25">
         <v>2022</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>7925</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="25">
         <v>2022</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>14294</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="25">
         <v>2022</v>
       </c>
@@ -16185,7 +16186,7 @@
         <v>10918</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="25">
         <v>2022</v>
       </c>
@@ -16217,7 +16218,7 @@
         <v>14693</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="25">
         <v>2022</v>
       </c>
@@ -16249,7 +16250,7 @@
         <v>12455</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="25">
         <v>2022</v>
       </c>
@@ -16281,7 +16282,7 @@
         <v>13354</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="25">
         <v>2022</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>11964</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="25">
         <v>2022</v>
       </c>
@@ -16345,7 +16346,7 @@
         <v>11460</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="25">
         <v>2022</v>
       </c>
@@ -16377,7 +16378,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="25">
         <v>2022</v>
       </c>
@@ -16409,7 +16410,7 @@
         <v>5105</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="25">
         <v>2022</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="25">
         <v>2022</v>
       </c>
@@ -16473,7 +16474,7 @@
         <v>10026</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="25">
         <v>2022</v>
       </c>
@@ -16505,7 +16506,7 @@
         <v>12508</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="25">
         <v>2022</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>5796</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="25">
         <v>2022</v>
       </c>
@@ -16569,7 +16570,7 @@
         <v>10619</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="25">
         <v>2022</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="25">
         <v>2022</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>10677</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="25">
         <v>2022</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="25">
         <v>2022</v>
       </c>
@@ -16697,7 +16698,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="25">
         <v>2022</v>
       </c>
@@ -16729,7 +16730,7 @@
         <v>14786</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="25">
         <v>2022</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="25">
         <v>2022</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>10153</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="25">
         <v>2022</v>
       </c>
@@ -16825,7 +16826,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="25">
         <v>2022</v>
       </c>
@@ -16857,7 +16858,7 @@
         <v>12414</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="25">
         <v>2022</v>
       </c>
@@ -16889,7 +16890,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="25">
         <v>2022</v>
       </c>
@@ -16921,7 +16922,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="25">
         <v>2022</v>
       </c>
@@ -16966,20 +16967,20 @@
   </sheetPr>
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.21875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="1" width="1.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.28515625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="5.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="5.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43" t="s">
         <v>92</v>
       </c>
@@ -17005,7 +17006,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="43">
         <v>2020</v>
       </c>
@@ -17017,7 +17018,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="43">
         <v>2021</v>
       </c>
@@ -17029,7 +17030,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="34"/>
     </row>
-    <row r="5" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="43">
         <v>2022</v>
       </c>
@@ -17041,7 +17042,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="42" t="s">
         <v>92</v>
       </c>
@@ -17055,7 +17056,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="43" t="s">
         <v>0</v>
       </c>
@@ -17065,11 +17066,11 @@
       <c r="G9" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="117">
+      <c r="H9" s="114">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="43" t="s">
         <v>1</v>
       </c>
@@ -17083,7 +17084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="43" t="s">
         <v>2</v>
       </c>
@@ -17091,7 +17092,7 @@
       <c r="D11" s="33"/>
       <c r="E11" s="49"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>3</v>
       </c>
@@ -17101,9 +17102,9 @@
       <c r="G12" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="116"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="113"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>11</v>
       </c>
@@ -17111,7 +17112,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="49"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
@@ -17119,7 +17120,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="49"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>8</v>
       </c>
@@ -17127,7 +17128,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="49"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
@@ -17135,7 +17136,7 @@
       <c r="D16" s="33"/>
       <c r="E16" s="49"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
         <v>27</v>
       </c>
@@ -17143,7 +17144,7 @@
       <c r="D17" s="33"/>
       <c r="E17" s="49"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
         <v>28</v>
       </c>
@@ -17151,7 +17152,7 @@
       <c r="D18" s="33"/>
       <c r="E18" s="49"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
         <v>29</v>
       </c>
@@ -17159,7 +17160,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
         <v>30</v>
       </c>
@@ -17188,19 +17189,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.21875" style="6"/>
-    <col min="8" max="8" width="11.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.21875" style="6"/>
+    <col min="5" max="5" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="6"/>
+    <col min="8" max="8" width="11.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
         <v>31</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
         <v>12</v>
       </c>
@@ -17243,7 +17244,7 @@
       </c>
       <c r="H2" s="65"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>13</v>
       </c>
@@ -17258,9 +17259,9 @@
       <c r="G3" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="125"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H3" s="120"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>14</v>
       </c>
@@ -17275,9 +17276,9 @@
       <c r="G4" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="124"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H4" s="119"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>15</v>
       </c>
@@ -17296,9 +17297,9 @@
       <c r="G5" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="H5" s="125"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H5" s="120"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
         <v>16</v>
       </c>
@@ -17315,9 +17316,9 @@
       <c r="G6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="124"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H6" s="119"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
         <v>17</v>
       </c>
@@ -17332,9 +17333,9 @@
       <c r="G7" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="125"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H7" s="120"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
         <v>18</v>
       </c>
@@ -17349,9 +17350,9 @@
       <c r="G8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="124"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H8" s="119"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>19</v>
       </c>
@@ -17370,9 +17371,9 @@
       <c r="G9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="125"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H9" s="120"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
         <v>20</v>
       </c>
@@ -17385,7 +17386,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>21</v>
       </c>
@@ -17400,7 +17401,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>22</v>
       </c>
@@ -17413,7 +17414,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>23</v>
       </c>
@@ -17426,7 +17427,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>24</v>
       </c>
@@ -17439,7 +17440,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
@@ -17452,7 +17453,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
         <v>26</v>
       </c>
@@ -17469,7 +17470,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
         <v>38</v>
       </c>
@@ -17484,7 +17485,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
         <v>43</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
         <v>41</v>
       </c>
@@ -17512,7 +17513,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
         <v>34</v>
       </c>
@@ -17527,7 +17528,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
         <v>45</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
         <v>33</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>39</v>
       </c>
@@ -17570,7 +17571,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>36</v>
       </c>
@@ -17583,7 +17584,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
         <v>42</v>
       </c>
@@ -17596,1008 +17597,1008 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="70"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
       <c r="D26" s="71"/>
       <c r="E26" s="72"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="73"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
       <c r="D27" s="74"/>
       <c r="E27" s="75"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="76"/>
       <c r="B28" s="76"/>
       <c r="C28" s="76"/>
       <c r="D28" s="77"/>
       <c r="E28" s="78"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="73"/>
       <c r="D29" s="74"/>
       <c r="E29" s="75"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="76"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
       <c r="D30" s="77"/>
       <c r="E30" s="78"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
       <c r="D31" s="74"/>
       <c r="E31" s="75"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="76"/>
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
       <c r="D32" s="77"/>
       <c r="E32" s="78"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="73"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73"/>
       <c r="D33" s="74"/>
       <c r="E33" s="75"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="76"/>
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="77"/>
       <c r="E34" s="78"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
       <c r="D35" s="74"/>
       <c r="E35" s="75"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="76"/>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
       <c r="D36" s="77"/>
       <c r="E36" s="78"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
       <c r="D37" s="74"/>
       <c r="E37" s="75"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="76"/>
       <c r="B38" s="76"/>
       <c r="C38" s="76"/>
       <c r="D38" s="77"/>
       <c r="E38" s="78"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="76"/>
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
       <c r="D40" s="77"/>
       <c r="E40" s="78"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="76"/>
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
       <c r="D42" s="77"/>
       <c r="E42" s="78"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="73"/>
       <c r="B43" s="73"/>
       <c r="C43" s="73"/>
       <c r="D43" s="74"/>
       <c r="E43" s="75"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="76"/>
       <c r="B44" s="76"/>
       <c r="C44" s="76"/>
       <c r="D44" s="77"/>
       <c r="E44" s="78"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="73"/>
       <c r="B45" s="73"/>
       <c r="C45" s="73"/>
       <c r="D45" s="74"/>
       <c r="E45" s="75"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="76"/>
       <c r="B46" s="76"/>
       <c r="C46" s="76"/>
       <c r="D46" s="77"/>
       <c r="E46" s="78"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="73"/>
       <c r="B47" s="73"/>
       <c r="C47" s="73"/>
       <c r="D47" s="74"/>
       <c r="E47" s="75"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="76"/>
       <c r="D48" s="77"/>
       <c r="E48" s="78"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="73"/>
       <c r="B49" s="73"/>
       <c r="C49" s="73"/>
       <c r="D49" s="74"/>
       <c r="E49" s="75"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="76"/>
       <c r="B50" s="76"/>
       <c r="C50" s="76"/>
       <c r="D50" s="77"/>
       <c r="E50" s="78"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="73"/>
       <c r="B51" s="73"/>
       <c r="C51" s="73"/>
       <c r="D51" s="74"/>
       <c r="E51" s="75"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="76"/>
       <c r="B52" s="76"/>
       <c r="C52" s="76"/>
       <c r="D52" s="77"/>
       <c r="E52" s="78"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="73"/>
       <c r="B53" s="73"/>
       <c r="C53" s="73"/>
       <c r="D53" s="74"/>
       <c r="E53" s="75"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="76"/>
       <c r="B54" s="76"/>
       <c r="C54" s="76"/>
       <c r="D54" s="77"/>
       <c r="E54" s="78"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="73"/>
       <c r="B55" s="73"/>
       <c r="C55" s="73"/>
       <c r="D55" s="74"/>
       <c r="E55" s="75"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="76"/>
       <c r="B56" s="76"/>
       <c r="C56" s="76"/>
       <c r="D56" s="77"/>
       <c r="E56" s="78"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="73"/>
       <c r="B57" s="73"/>
       <c r="C57" s="73"/>
       <c r="D57" s="74"/>
       <c r="E57" s="75"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="76"/>
       <c r="B58" s="76"/>
       <c r="C58" s="76"/>
       <c r="D58" s="77"/>
       <c r="E58" s="78"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="73"/>
       <c r="B59" s="73"/>
       <c r="C59" s="73"/>
       <c r="D59" s="74"/>
       <c r="E59" s="75"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="76"/>
       <c r="B60" s="76"/>
       <c r="C60" s="76"/>
       <c r="D60" s="77"/>
       <c r="E60" s="78"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="73"/>
       <c r="B61" s="73"/>
       <c r="C61" s="73"/>
       <c r="D61" s="74"/>
       <c r="E61" s="75"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="76"/>
       <c r="B62" s="76"/>
       <c r="C62" s="76"/>
       <c r="D62" s="77"/>
       <c r="E62" s="78"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="73"/>
       <c r="B63" s="73"/>
       <c r="C63" s="73"/>
       <c r="D63" s="74"/>
       <c r="E63" s="75"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="76"/>
       <c r="B64" s="76"/>
       <c r="C64" s="76"/>
       <c r="D64" s="77"/>
       <c r="E64" s="78"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="73"/>
       <c r="B65" s="73"/>
       <c r="C65" s="73"/>
       <c r="D65" s="74"/>
       <c r="E65" s="75"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="76"/>
       <c r="B66" s="76"/>
       <c r="C66" s="76"/>
       <c r="D66" s="77"/>
       <c r="E66" s="78"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="73"/>
       <c r="B67" s="73"/>
       <c r="C67" s="73"/>
       <c r="D67" s="74"/>
       <c r="E67" s="75"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="76"/>
       <c r="B68" s="76"/>
       <c r="C68" s="76"/>
       <c r="D68" s="77"/>
       <c r="E68" s="78"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="73"/>
       <c r="B69" s="73"/>
       <c r="C69" s="73"/>
       <c r="D69" s="74"/>
       <c r="E69" s="75"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="76"/>
       <c r="B70" s="76"/>
       <c r="C70" s="76"/>
       <c r="D70" s="77"/>
       <c r="E70" s="78"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="73"/>
       <c r="B71" s="73"/>
       <c r="C71" s="73"/>
       <c r="D71" s="74"/>
       <c r="E71" s="75"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="76"/>
       <c r="B72" s="76"/>
       <c r="C72" s="76"/>
       <c r="D72" s="77"/>
       <c r="E72" s="78"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="73"/>
       <c r="B73" s="73"/>
       <c r="C73" s="73"/>
       <c r="D73" s="74"/>
       <c r="E73" s="75"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="76"/>
       <c r="B74" s="76"/>
       <c r="C74" s="76"/>
       <c r="D74" s="77"/>
       <c r="E74" s="78"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="73"/>
       <c r="B75" s="73"/>
       <c r="C75" s="73"/>
       <c r="D75" s="74"/>
       <c r="E75" s="75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="76"/>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
       <c r="D76" s="77"/>
       <c r="E76" s="78"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="73"/>
       <c r="B77" s="73"/>
       <c r="C77" s="73"/>
       <c r="D77" s="74"/>
       <c r="E77" s="75"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="76"/>
       <c r="B78" s="76"/>
       <c r="C78" s="76"/>
       <c r="D78" s="77"/>
       <c r="E78" s="78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="73"/>
       <c r="B79" s="73"/>
       <c r="C79" s="73"/>
       <c r="D79" s="74"/>
       <c r="E79" s="75"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="76"/>
       <c r="B80" s="76"/>
       <c r="C80" s="76"/>
       <c r="D80" s="77"/>
       <c r="E80" s="78"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="73"/>
       <c r="B81" s="73"/>
       <c r="C81" s="73"/>
       <c r="D81" s="74"/>
       <c r="E81" s="75"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="76"/>
       <c r="B82" s="76"/>
       <c r="C82" s="76"/>
       <c r="D82" s="77"/>
       <c r="E82" s="78"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="73"/>
       <c r="B83" s="73"/>
       <c r="C83" s="73"/>
       <c r="D83" s="74"/>
       <c r="E83" s="75"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="76"/>
       <c r="B84" s="76"/>
       <c r="C84" s="76"/>
       <c r="D84" s="77"/>
       <c r="E84" s="78"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="73"/>
       <c r="B85" s="73"/>
       <c r="C85" s="74"/>
       <c r="D85" s="74"/>
       <c r="E85" s="75"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="76"/>
       <c r="B86" s="76"/>
       <c r="C86" s="77"/>
       <c r="D86" s="77"/>
       <c r="E86" s="78"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="73"/>
       <c r="B87" s="73"/>
       <c r="C87" s="73"/>
       <c r="D87" s="74"/>
       <c r="E87" s="75"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="76"/>
       <c r="B88" s="76"/>
       <c r="C88" s="76"/>
       <c r="D88" s="77"/>
       <c r="E88" s="78"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="73"/>
       <c r="B89" s="73"/>
       <c r="C89" s="73"/>
       <c r="D89" s="74"/>
       <c r="E89" s="75"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="76"/>
       <c r="B90" s="76"/>
       <c r="C90" s="76"/>
       <c r="D90" s="77"/>
       <c r="E90" s="78"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="73"/>
       <c r="B91" s="73"/>
       <c r="C91" s="73"/>
       <c r="D91" s="74"/>
       <c r="E91" s="75"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="76"/>
       <c r="B92" s="76"/>
       <c r="C92" s="76"/>
       <c r="D92" s="77"/>
       <c r="E92" s="78"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="73"/>
       <c r="B93" s="73"/>
       <c r="C93" s="73"/>
       <c r="D93" s="74"/>
       <c r="E93" s="75"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="76"/>
       <c r="B94" s="76"/>
       <c r="C94" s="76"/>
       <c r="D94" s="77"/>
       <c r="E94" s="78"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="73"/>
       <c r="B95" s="73"/>
       <c r="C95" s="73"/>
       <c r="D95" s="74"/>
       <c r="E95" s="75"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="76"/>
       <c r="B96" s="76"/>
       <c r="C96" s="76"/>
       <c r="D96" s="77"/>
       <c r="E96" s="78"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="73"/>
       <c r="B97" s="73"/>
       <c r="C97" s="73"/>
       <c r="D97" s="74"/>
       <c r="E97" s="75"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="76"/>
       <c r="B98" s="76"/>
       <c r="C98" s="76"/>
       <c r="D98" s="77"/>
       <c r="E98" s="78"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="73"/>
       <c r="B99" s="73"/>
       <c r="C99" s="73"/>
       <c r="D99" s="74"/>
       <c r="E99" s="75"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="76"/>
       <c r="B100" s="76"/>
       <c r="C100" s="76"/>
       <c r="D100" s="77"/>
       <c r="E100" s="78"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="73"/>
       <c r="B101" s="73"/>
       <c r="C101" s="73"/>
       <c r="D101" s="74"/>
       <c r="E101" s="75"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="76"/>
       <c r="B102" s="76"/>
       <c r="C102" s="76"/>
       <c r="D102" s="77"/>
       <c r="E102" s="78"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="73"/>
       <c r="B103" s="73"/>
       <c r="C103" s="73"/>
       <c r="D103" s="74"/>
       <c r="E103" s="75"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="76"/>
       <c r="B104" s="76"/>
       <c r="C104" s="76"/>
       <c r="D104" s="77"/>
       <c r="E104" s="78"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="73"/>
       <c r="B105" s="73"/>
       <c r="C105" s="73"/>
       <c r="D105" s="74"/>
       <c r="E105" s="75"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="76"/>
       <c r="B106" s="76"/>
       <c r="C106" s="76"/>
       <c r="D106" s="77"/>
       <c r="E106" s="78"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="73"/>
       <c r="B107" s="73"/>
       <c r="C107" s="73"/>
       <c r="D107" s="74"/>
       <c r="E107" s="75"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="76"/>
       <c r="B108" s="76"/>
       <c r="C108" s="76"/>
       <c r="D108" s="77"/>
       <c r="E108" s="78"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="73"/>
       <c r="B109" s="73"/>
       <c r="C109" s="73"/>
       <c r="D109" s="74"/>
       <c r="E109" s="75"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="76"/>
       <c r="B110" s="76"/>
       <c r="C110" s="76"/>
       <c r="D110" s="77"/>
       <c r="E110" s="78"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="73"/>
       <c r="B111" s="73"/>
       <c r="C111" s="73"/>
       <c r="D111" s="74"/>
       <c r="E111" s="75"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="76"/>
       <c r="B112" s="76"/>
       <c r="C112" s="76"/>
       <c r="D112" s="77"/>
       <c r="E112" s="78"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="73"/>
       <c r="B113" s="73"/>
       <c r="C113" s="73"/>
       <c r="D113" s="74"/>
       <c r="E113" s="75"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="76"/>
       <c r="B114" s="76"/>
       <c r="C114" s="76"/>
       <c r="D114" s="77"/>
       <c r="E114" s="78"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="73"/>
       <c r="B115" s="73"/>
       <c r="C115" s="73"/>
       <c r="D115" s="74"/>
       <c r="E115" s="75"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="76"/>
       <c r="B116" s="76"/>
       <c r="C116" s="76"/>
       <c r="D116" s="77"/>
       <c r="E116" s="78"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="73"/>
       <c r="B117" s="73"/>
       <c r="C117" s="73"/>
       <c r="D117" s="74"/>
       <c r="E117" s="75"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="76"/>
       <c r="B118" s="76"/>
       <c r="C118" s="76"/>
       <c r="D118" s="77"/>
       <c r="E118" s="78"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="73"/>
       <c r="B119" s="73"/>
       <c r="C119" s="73"/>
       <c r="D119" s="74"/>
       <c r="E119" s="75"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="76"/>
       <c r="B120" s="76"/>
       <c r="C120" s="76"/>
       <c r="D120" s="77"/>
       <c r="E120" s="78"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="73"/>
       <c r="B121" s="73"/>
       <c r="C121" s="73"/>
       <c r="D121" s="74"/>
       <c r="E121" s="75"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="76"/>
       <c r="B122" s="76"/>
       <c r="C122" s="76"/>
       <c r="D122" s="77"/>
       <c r="E122" s="78"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="73"/>
       <c r="B123" s="73"/>
       <c r="C123" s="73"/>
       <c r="D123" s="74"/>
       <c r="E123" s="75"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="76"/>
       <c r="B124" s="76"/>
       <c r="C124" s="76"/>
       <c r="D124" s="77"/>
       <c r="E124" s="78"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="73"/>
       <c r="B125" s="73"/>
       <c r="C125" s="73"/>
       <c r="D125" s="74"/>
       <c r="E125" s="75"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="76"/>
       <c r="B126" s="76"/>
       <c r="C126" s="76"/>
       <c r="D126" s="77"/>
       <c r="E126" s="78"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="73"/>
       <c r="B127" s="73"/>
       <c r="C127" s="73"/>
       <c r="D127" s="74"/>
       <c r="E127" s="75"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="76"/>
       <c r="B128" s="76"/>
       <c r="C128" s="76"/>
       <c r="D128" s="77"/>
       <c r="E128" s="78"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="73"/>
       <c r="B129" s="73"/>
       <c r="C129" s="73"/>
       <c r="D129" s="74"/>
       <c r="E129" s="75"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="76"/>
       <c r="B130" s="76"/>
       <c r="C130" s="76"/>
       <c r="D130" s="77"/>
       <c r="E130" s="78"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="73"/>
       <c r="B131" s="73"/>
       <c r="C131" s="73"/>
       <c r="D131" s="74"/>
       <c r="E131" s="75"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="76"/>
       <c r="B132" s="76"/>
       <c r="C132" s="76"/>
       <c r="D132" s="77"/>
       <c r="E132" s="78"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="73"/>
       <c r="B133" s="73"/>
       <c r="C133" s="73"/>
       <c r="D133" s="74"/>
       <c r="E133" s="75"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="76"/>
       <c r="B134" s="76"/>
       <c r="C134" s="76"/>
       <c r="D134" s="77"/>
       <c r="E134" s="78"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="73"/>
       <c r="B135" s="73"/>
       <c r="C135" s="73"/>
       <c r="D135" s="74"/>
       <c r="E135" s="75"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="76"/>
       <c r="B136" s="76"/>
       <c r="C136" s="76"/>
       <c r="D136" s="77"/>
       <c r="E136" s="78"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="73"/>
       <c r="B137" s="73"/>
       <c r="C137" s="73"/>
       <c r="D137" s="74"/>
       <c r="E137" s="75"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="76"/>
       <c r="B138" s="76"/>
       <c r="C138" s="76"/>
       <c r="D138" s="77"/>
       <c r="E138" s="78"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="73"/>
       <c r="B139" s="73"/>
       <c r="C139" s="73"/>
       <c r="D139" s="74"/>
       <c r="E139" s="75"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="76"/>
       <c r="B140" s="76"/>
       <c r="C140" s="76"/>
       <c r="D140" s="77"/>
       <c r="E140" s="78"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="73"/>
       <c r="B141" s="73"/>
       <c r="C141" s="73"/>
       <c r="D141" s="74"/>
       <c r="E141" s="75"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="76"/>
       <c r="B142" s="76"/>
       <c r="C142" s="76"/>
       <c r="D142" s="77"/>
       <c r="E142" s="78"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="73"/>
       <c r="B143" s="73"/>
       <c r="C143" s="73"/>
       <c r="D143" s="74"/>
       <c r="E143" s="75"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="76"/>
       <c r="B144" s="76"/>
       <c r="C144" s="76"/>
       <c r="D144" s="77"/>
       <c r="E144" s="78"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="73"/>
       <c r="B145" s="73"/>
       <c r="C145" s="73"/>
       <c r="D145" s="74"/>
       <c r="E145" s="75"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="76"/>
       <c r="B146" s="76"/>
       <c r="C146" s="76"/>
       <c r="D146" s="77"/>
       <c r="E146" s="78"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="73"/>
       <c r="B147" s="73"/>
       <c r="C147" s="73"/>
       <c r="D147" s="74"/>
       <c r="E147" s="75"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="76"/>
       <c r="B148" s="76"/>
       <c r="C148" s="76"/>
       <c r="D148" s="77"/>
       <c r="E148" s="78"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="73"/>
       <c r="B149" s="73"/>
       <c r="C149" s="73"/>
       <c r="D149" s="74"/>
       <c r="E149" s="75"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="76"/>
       <c r="B150" s="76"/>
       <c r="C150" s="76"/>
       <c r="D150" s="77"/>
       <c r="E150" s="78"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="73"/>
       <c r="B151" s="73"/>
       <c r="C151" s="73"/>
       <c r="D151" s="74"/>
       <c r="E151" s="75"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="76"/>
       <c r="B152" s="76"/>
       <c r="C152" s="76"/>
       <c r="D152" s="77"/>
       <c r="E152" s="78"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="73"/>
       <c r="B153" s="73"/>
       <c r="C153" s="73"/>
       <c r="D153" s="74"/>
       <c r="E153" s="75"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="76"/>
       <c r="B154" s="76"/>
       <c r="C154" s="76"/>
       <c r="D154" s="77"/>
       <c r="E154" s="78"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="73"/>
       <c r="B155" s="73"/>
       <c r="C155" s="73"/>
       <c r="D155" s="74"/>
       <c r="E155" s="75"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="76"/>
       <c r="B156" s="76"/>
       <c r="C156" s="76"/>
       <c r="D156" s="77"/>
       <c r="E156" s="78"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="73"/>
       <c r="B157" s="73"/>
       <c r="C157" s="73"/>
       <c r="D157" s="74"/>
       <c r="E157" s="75"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="76"/>
       <c r="B158" s="76"/>
       <c r="C158" s="76"/>
       <c r="D158" s="77"/>
       <c r="E158" s="78"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="73"/>
       <c r="B159" s="73"/>
       <c r="C159" s="73"/>
       <c r="D159" s="74"/>
       <c r="E159" s="75"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="76"/>
       <c r="B160" s="76"/>
       <c r="C160" s="76"/>
       <c r="D160" s="77"/>
       <c r="E160" s="78"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="73"/>
       <c r="B161" s="73"/>
       <c r="C161" s="73"/>
       <c r="D161" s="74"/>
       <c r="E161" s="75"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="76"/>
       <c r="B162" s="76"/>
       <c r="C162" s="76"/>
       <c r="D162" s="77"/>
       <c r="E162" s="78"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="73"/>
       <c r="B163" s="73"/>
       <c r="C163" s="73"/>
       <c r="D163" s="74"/>
       <c r="E163" s="75"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="76"/>
       <c r="B164" s="76"/>
       <c r="C164" s="76"/>
       <c r="D164" s="77"/>
       <c r="E164" s="78"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="73"/>
       <c r="B165" s="73"/>
       <c r="C165" s="73"/>
       <c r="D165" s="74"/>
       <c r="E165" s="75"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="76"/>
       <c r="B166" s="76"/>
       <c r="C166" s="76"/>
       <c r="D166" s="77"/>
       <c r="E166" s="78"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="73"/>
       <c r="B167" s="73"/>
       <c r="C167" s="73"/>
       <c r="D167" s="74"/>
       <c r="E167" s="75"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="76"/>
       <c r="B168" s="76"/>
       <c r="C168" s="76"/>
       <c r="D168" s="77"/>
       <c r="E168" s="78"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="79"/>
       <c r="B169" s="79"/>
       <c r="C169" s="79"/>
@@ -18615,23 +18616,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:J37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="55" t="s">
         <v>6</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
@@ -18667,9 +18670,18 @@
       <c r="D7" s="9">
         <v>12320</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="121"/>
+      <c r="E7" s="117">
+        <f>IF($C7=$I$7,($D7*$J$7)+$D7,IF($C7=$I$8,($D7*$J$8)+$D7,IF($C7=$I$9,($D7*$J$9)+D7)))</f>
+        <v>17248</v>
+      </c>
+      <c r="F7" s="9">
+        <f>D7 * (100% + VLOOKUP(C7, $I$7:J9, 2, 0))</f>
+        <v>17248</v>
+      </c>
+      <c r="G7" s="118">
+        <f>D7*(100%+INDEX($J$7:$J$9,MATCH(C7,$I$7:$I$9,0)))</f>
+        <v>17248</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>79</v>
       </c>
@@ -18677,7 +18689,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>48</v>
       </c>
@@ -18687,9 +18699,18 @@
       <c r="D8" s="9">
         <v>1600</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="121"/>
+      <c r="E8" s="117">
+        <f t="shared" ref="E8:E37" si="0">IF($C8=$I$7,($D8*$J$7)+$D8,IF($C8=$I$8,($D8*$J$8)+$D8,IF($C8=$I$9,($D8*$J$9)+D8)))</f>
+        <v>1680</v>
+      </c>
+      <c r="F8" s="9">
+        <f>D8 * (100% + VLOOKUP(C8, $I$7:J10, 2, 0))</f>
+        <v>1680</v>
+      </c>
+      <c r="G8" s="118">
+        <f t="shared" ref="G8:G37" si="1">D8*(100%+INDEX($J$7:$J$9,MATCH(C8,$I$7:$I$9,0)))</f>
+        <v>1680</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>81</v>
       </c>
@@ -18697,7 +18718,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>49</v>
       </c>
@@ -18707,9 +18728,18 @@
       <c r="D9" s="9">
         <v>12320</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="121"/>
+      <c r="E9" s="117">
+        <f t="shared" si="0"/>
+        <v>17248</v>
+      </c>
+      <c r="F9" s="9">
+        <f>D9 * (100% + VLOOKUP(C9, $I$7:J11, 2, 0))</f>
+        <v>17248</v>
+      </c>
+      <c r="G9" s="118">
+        <f t="shared" si="1"/>
+        <v>17248</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>80</v>
       </c>
@@ -18717,7 +18747,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
@@ -18727,11 +18757,20 @@
       <c r="D10" s="9">
         <v>2000</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="121"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="117">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F10" s="9">
+        <f>D10 * (100% + VLOOKUP(C10, $I$7:J12, 2, 0))</f>
+        <v>2100</v>
+      </c>
+      <c r="G10" s="118">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
@@ -18741,11 +18780,20 @@
       <c r="D11" s="9">
         <v>2000</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="121"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="117">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F11" s="9">
+        <f>D11 * (100% + VLOOKUP(C11, $I$7:J13, 2, 0))</f>
+        <v>2100</v>
+      </c>
+      <c r="G11" s="118">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
@@ -18755,11 +18803,20 @@
       <c r="D12" s="9">
         <v>4650</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="121"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="117">
+        <f t="shared" si="0"/>
+        <v>5347.5</v>
+      </c>
+      <c r="F12" s="9">
+        <f>D12 * (100% + VLOOKUP(C12, $I$7:J14, 2, 0))</f>
+        <v>5347.5</v>
+      </c>
+      <c r="G12" s="118">
+        <f t="shared" si="1"/>
+        <v>5347.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
@@ -18769,11 +18826,20 @@
       <c r="D13" s="9">
         <v>8100</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="121"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F13" s="9">
+        <f>D13 * (100% + VLOOKUP(C13, $I$7:J15, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G13" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>54</v>
       </c>
@@ -18783,11 +18849,20 @@
       <c r="D14" s="9">
         <v>2850</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="121"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="117">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F14" s="9">
+        <f>D14 * (100% + VLOOKUP(C14, $I$7:J16, 2, 0))</f>
+        <v>3277.4999999999995</v>
+      </c>
+      <c r="G14" s="118">
+        <f t="shared" si="1"/>
+        <v>3277.4999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
@@ -18797,11 +18872,20 @@
       <c r="D15" s="9">
         <v>8100</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="121"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F15" s="9">
+        <f>D15 * (100% + VLOOKUP(C15, $I$7:J17, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G15" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>56</v>
       </c>
@@ -18811,11 +18895,20 @@
       <c r="D16" s="9">
         <v>8100</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="121"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F16" s="9">
+        <f>D16 * (100% + VLOOKUP(C16, $I$7:J18, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G16" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>57</v>
       </c>
@@ -18825,11 +18918,20 @@
       <c r="D17" s="9">
         <v>2000</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="121"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="117">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F17" s="9">
+        <f>D17 * (100% + VLOOKUP(C17, $I$7:J19, 2, 0))</f>
+        <v>2100</v>
+      </c>
+      <c r="G17" s="118">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>58</v>
       </c>
@@ -18839,11 +18941,20 @@
       <c r="D18" s="9">
         <v>7200</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="121"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="117">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+      <c r="F18" s="9">
+        <f>D18 * (100% + VLOOKUP(C18, $I$7:J20, 2, 0))</f>
+        <v>10080</v>
+      </c>
+      <c r="G18" s="118">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
@@ -18853,11 +18964,20 @@
       <c r="D19" s="9">
         <v>8100</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="121"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F19" s="9">
+        <f>D19 * (100% + VLOOKUP(C19, $I$7:J21, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G19" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>60</v>
       </c>
@@ -18867,11 +18987,20 @@
       <c r="D20" s="9">
         <v>2850</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="121"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="117">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F20" s="9">
+        <f>D20 * (100% + VLOOKUP(C20, $I$7:J22, 2, 0))</f>
+        <v>3277.4999999999995</v>
+      </c>
+      <c r="G20" s="118">
+        <f t="shared" si="1"/>
+        <v>3277.4999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
@@ -18881,11 +19010,20 @@
       <c r="D21" s="9">
         <v>2850</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="121"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="117">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F21" s="9">
+        <f>D21 * (100% + VLOOKUP(C21, $I$7:J23, 2, 0))</f>
+        <v>3277.4999999999995</v>
+      </c>
+      <c r="G21" s="118">
+        <f t="shared" si="1"/>
+        <v>3277.4999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>62</v>
       </c>
@@ -18895,11 +19033,20 @@
       <c r="D22" s="9">
         <v>2000</v>
       </c>
-      <c r="E22" s="120"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="121"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="117">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="F22" s="9">
+        <f>D22 * (100% + VLOOKUP(C22, $I$7:J24, 2, 0))</f>
+        <v>2100</v>
+      </c>
+      <c r="G22" s="118">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>63</v>
       </c>
@@ -18909,11 +19056,20 @@
       <c r="D23" s="9">
         <v>3700</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="121"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="117">
+        <f t="shared" si="0"/>
+        <v>4255</v>
+      </c>
+      <c r="F23" s="9">
+        <f>D23 * (100% + VLOOKUP(C23, $I$7:J25, 2, 0))</f>
+        <v>4255</v>
+      </c>
+      <c r="G23" s="118">
+        <f t="shared" si="1"/>
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
@@ -18923,11 +19079,20 @@
       <c r="D24" s="9">
         <v>7200</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="121"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="117">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+      <c r="F24" s="9">
+        <f>D24 * (100% + VLOOKUP(C24, $I$7:J26, 2, 0))</f>
+        <v>10080</v>
+      </c>
+      <c r="G24" s="118">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>65</v>
       </c>
@@ -18937,11 +19102,20 @@
       <c r="D25" s="9">
         <v>3700</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="121"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="117">
+        <f t="shared" si="0"/>
+        <v>4255</v>
+      </c>
+      <c r="F25" s="9">
+        <f>D25 * (100% + VLOOKUP(C25, $I$7:J27, 2, 0))</f>
+        <v>4255</v>
+      </c>
+      <c r="G25" s="118">
+        <f t="shared" si="1"/>
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>66</v>
       </c>
@@ -18951,11 +19125,20 @@
       <c r="D26" s="9">
         <v>8100</v>
       </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="121"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F26" s="9">
+        <f>D26 * (100% + VLOOKUP(C26, $I$7:J28, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G26" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>67</v>
       </c>
@@ -18965,11 +19148,20 @@
       <c r="D27" s="9">
         <v>2850</v>
       </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="121"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="117">
+        <f t="shared" si="0"/>
+        <v>3277.5</v>
+      </c>
+      <c r="F27" s="9">
+        <f>D27 * (100% + VLOOKUP(C27, $I$7:J29, 2, 0))</f>
+        <v>3277.4999999999995</v>
+      </c>
+      <c r="G27" s="118">
+        <f t="shared" si="1"/>
+        <v>3277.4999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>68</v>
       </c>
@@ -18979,11 +19171,20 @@
       <c r="D28" s="9">
         <v>7200</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="121"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="117">
+        <f t="shared" si="0"/>
+        <v>10080</v>
+      </c>
+      <c r="F28" s="9">
+        <f>D28 * (100% + VLOOKUP(C28, $I$7:J30, 2, 0))</f>
+        <v>10080</v>
+      </c>
+      <c r="G28" s="118">
+        <f t="shared" si="1"/>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
@@ -18993,11 +19194,20 @@
       <c r="D29" s="9">
         <v>1600</v>
       </c>
-      <c r="E29" s="120"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="121"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="117">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="F29" s="9">
+        <f>D29 * (100% + VLOOKUP(C29, $I$7:J31, 2, 0))</f>
+        <v>1680</v>
+      </c>
+      <c r="G29" s="118">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>70</v>
       </c>
@@ -19007,11 +19217,20 @@
       <c r="D30" s="9">
         <v>8100</v>
       </c>
-      <c r="E30" s="120"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="121"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F30" s="9">
+        <f>D30 * (100% + VLOOKUP(C30, $I$7:J32, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G30" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
@@ -19021,11 +19240,20 @@
       <c r="D31" s="9">
         <v>9450</v>
       </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="121"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="117">
+        <f t="shared" si="0"/>
+        <v>13230</v>
+      </c>
+      <c r="F31" s="9">
+        <f>D31 * (100% + VLOOKUP(C31, $I$7:J33, 2, 0))</f>
+        <v>13230</v>
+      </c>
+      <c r="G31" s="118">
+        <f t="shared" si="1"/>
+        <v>13230</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
@@ -19035,11 +19263,20 @@
       <c r="D32" s="9">
         <v>4650</v>
       </c>
-      <c r="E32" s="120"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="121"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="117">
+        <f t="shared" si="0"/>
+        <v>5347.5</v>
+      </c>
+      <c r="F32" s="9">
+        <f>D32 * (100% + VLOOKUP(C32, $I$7:J34, 2, 0))</f>
+        <v>5347.5</v>
+      </c>
+      <c r="G32" s="118">
+        <f t="shared" si="1"/>
+        <v>5347.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>73</v>
       </c>
@@ -19049,11 +19286,20 @@
       <c r="D33" s="9">
         <v>3700</v>
       </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="121"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="117">
+        <f t="shared" si="0"/>
+        <v>4255</v>
+      </c>
+      <c r="F33" s="9">
+        <f>D33 * (100% + VLOOKUP(C33, $I$7:J35, 2, 0))</f>
+        <v>4255</v>
+      </c>
+      <c r="G33" s="118">
+        <f t="shared" si="1"/>
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>74</v>
       </c>
@@ -19063,11 +19309,20 @@
       <c r="D34" s="9">
         <v>8100</v>
       </c>
-      <c r="E34" s="120"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="121"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="117">
+        <f t="shared" si="0"/>
+        <v>11340</v>
+      </c>
+      <c r="F34" s="9">
+        <f>D34 * (100% + VLOOKUP(C34, $I$7:J36, 2, 0))</f>
+        <v>11340</v>
+      </c>
+      <c r="G34" s="118">
+        <f t="shared" si="1"/>
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>75</v>
       </c>
@@ -19077,11 +19332,20 @@
       <c r="D35" s="9">
         <v>12320</v>
       </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="121"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="117">
+        <f t="shared" si="0"/>
+        <v>17248</v>
+      </c>
+      <c r="F35" s="9">
+        <f>D35 * (100% + VLOOKUP(C35, $I$7:J37, 2, 0))</f>
+        <v>17248</v>
+      </c>
+      <c r="G35" s="118">
+        <f t="shared" si="1"/>
+        <v>17248</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>76</v>
       </c>
@@ -19091,11 +19355,20 @@
       <c r="D36" s="9">
         <v>12320</v>
       </c>
-      <c r="E36" s="120"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="121"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="117">
+        <f t="shared" si="0"/>
+        <v>17248</v>
+      </c>
+      <c r="F36" s="9">
+        <f>D36 * (100% + VLOOKUP(C36, $I$7:J38, 2, 0))</f>
+        <v>17248</v>
+      </c>
+      <c r="G36" s="118">
+        <f t="shared" si="1"/>
+        <v>17248</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>77</v>
       </c>
@@ -19105,9 +19378,18 @@
       <c r="D37" s="9">
         <v>4650</v>
       </c>
-      <c r="E37" s="120"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="121"/>
+      <c r="E37" s="117">
+        <f t="shared" si="0"/>
+        <v>5347.5</v>
+      </c>
+      <c r="F37" s="9">
+        <f>D37 * (100% + VLOOKUP(C37, $I$7:J39, 2, 0))</f>
+        <v>5347.5</v>
+      </c>
+      <c r="G37" s="118">
+        <f t="shared" si="1"/>
+        <v>5347.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -19123,17 +19405,19 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="107" t="s">
         <v>225</v>
       </c>
@@ -19147,7 +19431,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>192</v>
       </c>
@@ -19161,7 +19445,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>195</v>
       </c>
@@ -19175,7 +19459,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>197</v>
       </c>
@@ -19189,7 +19473,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>199</v>
       </c>
@@ -19203,7 +19487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>201</v>
       </c>
@@ -19217,7 +19501,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>204</v>
       </c>
@@ -19231,7 +19515,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>206</v>
       </c>
@@ -19245,7 +19529,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>208</v>
       </c>
